--- a/tabellen/ontwikkeling/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/ontwikkeling/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{872A968C-05F0-4FDB-B877-ED0198C6D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C66249-CD77-47C6-85BC-A43626D0A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{C3088DDF-11C7-47A7-8450-B3FC3011FDFA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{ED982077-2CAF-44FA-8801-339F1381AE97}"/>
   </bookViews>
   <sheets>
-    <sheet name="objecten-concept-5.1-algemeen" sheetId="1" r:id="rId1"/>
+    <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AL-algemee'!$A$1:$BS$37</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="177">
   <si>
     <t>objectURI</t>
   </si>
@@ -235,22 +238,58 @@
     <t>vrkl_kort</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d7424c0f-a027-451f-b6b2-26fc04374b9d</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/a6dd3cd1-92f9-4f48-b418-a556c3475b60</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_SCHAALBALK</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/d98ba953-a03b-42f3-aed2-88ac9595dd7a</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a6dd3cd1-92f9-4f48-b418-a556c3475b60</t>
-  </si>
-  <si>
-    <t>AL</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bacc787a-3288-4f27-a233-6a58ce3d5c65</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7061fda8-0f02-4af5-a65e-6cca6c05bfea</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/50f7e6bd-88c4-4cb6-a60b-64408590c6a3</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/21484fcb-4d9f-4e86-a9f5-fd6d855c7437</t>
+  </si>
+  <si>
+    <t>CONTINUOUS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/4eec67be-fbcc-417d-a17f-c0c911fd9b46</t>
+  </si>
+  <si>
+    <t>SAL-SCHAALBALK</t>
   </si>
   <si>
     <t>TEKENBLAD</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>XX</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/f14aa137-98dc-41ad-8dc5-fad94cb489e4</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/2b57f0b7-f05f-40c5-9d74-61aeda3e34bd</t>
@@ -289,22 +328,166 @@
     <t>AANKLEDING</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/fa7f8757-afa0-4bbc-b556-734091491e54</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/af48781d-0a36-4244-88ff-cb86c15b5313</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/5a3e96c4-acf5-4a85-a283-3d0a070fb7f1</t>
   </si>
   <si>
     <t>SAL-AANKLEDING</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d7424c0f-a027-451f-b6b2-26fc04374b9d</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_SCHAALBALK</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/4eec67be-fbcc-417d-a17f-c0c911fd9b46</t>
-  </si>
-  <si>
-    <t>SAL-SCHAALBALK</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3455519b-0969-441e-9066-defcb5245141</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_VIEWPORT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/a394f60d-1d36-4b97-80db-a568211f2980</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_DEELKADER</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b587d613-cd7c-4348-a3b4-24538c0cb9f2</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_TITELBLOK</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1f26db84-c369-43cd-bc64-5af1eef71e7d</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_WIJZIGINGSBLOK</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/afa7666b-1c23-4d4e-a6ca-f8a9d64324dc</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_SITUATIE</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/836a066d-0781-4ce6-a760-4566c5dbfa5d</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_VERKLARING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e982babe-06cc-4800-b3e9-7e44471737bd</t>
+  </si>
+  <si>
+    <t>VERWIJZING_DETAIL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/73554001-b372-4756-8df7-fe86ce5073c7</t>
+  </si>
+  <si>
+    <t>VERWIJZING_WIJZIGING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/1db1d6dd-7179-4557-a166-83ac03b4a156</t>
+  </si>
+  <si>
+    <t>AL-WIJZIGING-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/13864a8b-0201-45a7-9da1-3d049b336411</t>
+  </si>
+  <si>
+    <t>VERWIJZING_DOORSNEDE</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bf89462e-f101-4a5e-93d2-1f459ec036da</t>
+  </si>
+  <si>
+    <t>AL-DOORSNEDE-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d4e4aefc-e55d-4e15-b524-2e3344e15eec</t>
+  </si>
+  <si>
+    <t>VERWIJZING_AANZICHT</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/8736b97a-29b3-4456-85a1-4c28e42df099</t>
+  </si>
+  <si>
+    <t>AL-AANZICHT-SO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/91cd8ded-2932-4cc1-bf16-1321ddb60b47</t>
+  </si>
+  <si>
+    <t>BLADVERWIJZING_BLAD</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ae1369b0-0ece-4017-94a5-f001804b4188</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/183069c1-f792-472f-9713-477516c63199</t>
+  </si>
+  <si>
+    <t>BLADVERWIJZING_KAART</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/d366a885-c350-4366-afc0-1af4aa64d227</t>
+  </si>
+  <si>
+    <t>BLADVERWIJZING_AS</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/18b54499-57d3-49e4-ac4c-3048b64a7c69</t>
+  </si>
+  <si>
+    <t>BLADVERWIJZING_CONTOUR</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/9f9c66dc-e5f0-4de1-85f9-82d36f81ff33</t>
+  </si>
+  <si>
+    <t>BLADVERWIJZING_DTM</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/22235789-48d3-4154-8f8d-63ed70b13e04</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_KADER_AFSNIJMARKERING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7158aa53-1b03-40c5-bf95-8d31e2c72624</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/136521c9-daf1-49e9-b172-75e75b470a76</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_KADER_ROOSTERVERDELING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/5c8ecbe8-2744-4c16-87df-9a4db5b2c7c8</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_KADER_VOUWMERK</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/b5f97208-afc7-442d-ad3f-a1e4371644e8</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_TITELBLOK_BEDRIJFSLOGO</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dce8eebe-26fe-4bcd-8386-302351ce4e18</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/92f19c5b-3468-4882-a592-0b72952bed68</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_WERKZAAMHEDEN</t>
   </si>
   <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/5bd4b95a-dc71-42af-b5cf-c2d7449f9760</t>
@@ -325,9 +508,6 @@
     <t>REFERENTIE</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/ae1369b0-0ece-4017-94a5-f001804b4188</t>
-  </si>
-  <si>
     <t>BLADVERWIJZING</t>
   </si>
   <si>
@@ -337,160 +517,43 @@
     <t>TEKENBLADGRENS</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/472b6144-39d6-4c45-afa9-84f3b501e0d9</t>
+  </si>
+  <si>
+    <t>AL-TEKENBLADGRENS-SO</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/f54c6021-5e77-48aa-a020-0bf0f86da9e4</t>
   </si>
   <si>
     <t>LEGENDA</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7158aa53-1b03-40c5-bf95-8d31e2c72624</t>
+    <t>http://digitalbuildingdata.tech/nlcs/def/eb014724-0f60-4622-9dc3-c2bad4053382</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_WERKZAAMHEDEN_NUMMER</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/cb5221c0-9ab9-4910-835a-a746d63376b6</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_WERKZAAMHEDEN_LIJN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/adfd981c-7368-4611-a37d-c78fc26133aa</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_WERKZAAMHEDEN_LIJST</t>
   </si>
   <si>
     <t>TEKENBLAD_KADER</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/3455519b-0969-441e-9066-defcb5245141</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_VIEWPORT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/a394f60d-1d36-4b97-80db-a568211f2980</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_DEELKADER</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b587d613-cd7c-4348-a3b4-24538c0cb9f2</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_TITELBLOK</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/1f26db84-c369-43cd-bc64-5af1eef71e7d</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_WIJZIGINGSBLOK</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/afa7666b-1c23-4d4e-a6ca-f8a9d64324dc</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_SITUATIE</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/836a066d-0781-4ce6-a760-4566c5dbfa5d</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_VERKLARING</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/92f19c5b-3468-4882-a592-0b72952bed68</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_WERKZAAMHEDEN</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/e982babe-06cc-4800-b3e9-7e44471737bd</t>
-  </si>
-  <si>
-    <t>VERWIJZING_DETAIL</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/73554001-b372-4756-8df7-fe86ce5073c7</t>
-  </si>
-  <si>
-    <t>VERWIJZING_WIJZIGING</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/13864a8b-0201-45a7-9da1-3d049b336411</t>
-  </si>
-  <si>
-    <t>VERWIJZING_DOORSNEDE</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d4e4aefc-e55d-4e15-b524-2e3344e15eec</t>
-  </si>
-  <si>
-    <t>VERWIJZING_AANZICHT</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/91cd8ded-2932-4cc1-bf16-1321ddb60b47</t>
-  </si>
-  <si>
-    <t>BLADVERWIJZING_BLAD</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/183069c1-f792-472f-9713-477516c63199</t>
-  </si>
-  <si>
-    <t>BLADVERWIJZING_KAART</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/d366a885-c350-4366-afc0-1af4aa64d227</t>
-  </si>
-  <si>
-    <t>BLADVERWIJZING_AS</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/18b54499-57d3-49e4-ac4c-3048b64a7c69</t>
-  </si>
-  <si>
-    <t>BLADVERWIJZING_CONTOUR</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/9f9c66dc-e5f0-4de1-85f9-82d36f81ff33</t>
-  </si>
-  <si>
-    <t>BLADVERWIJZING_DTM</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/22235789-48d3-4154-8f8d-63ed70b13e04</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_KADER_AFSNIJMARKERING</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/136521c9-daf1-49e9-b172-75e75b470a76</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_KADER_ROOSTERVERDELING</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/142d5294-b077-446d-87e7-30f2777e841d</t>
   </si>
   <si>
     <t>TEKENBLAD_KADER_CENTERMARKERING</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/5c8ecbe8-2744-4c16-87df-9a4db5b2c7c8</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_KADER_VOUWMERK</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/b5f97208-afc7-442d-ad3f-a1e4371644e8</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_TITELBLOK_BEDRIJFSLOGO</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/eb014724-0f60-4622-9dc3-c2bad4053382</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_WERKZAAMHEDEN_NUMMER</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/cb5221c0-9ab9-4910-835a-a746d63376b6</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_WERKZAAMHEDEN_LIJN</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/adfd981c-7368-4611-a37d-c78fc26133aa</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_WERKZAAMHEDEN_LIJST</t>
   </si>
 </sst>
 </file>
@@ -1350,14 +1413,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9ED6357-40D1-4AB8-A05F-68D50D384423}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B9CE5-1C0A-444F-9FF0-53F8FBA86B73}">
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="66" width="0" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="8.7265625" customWidth="1"/>
+    <col min="68" max="68" width="15.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1576,7 +1645,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -1584,25 +1653,70 @@
       <c r="C2" t="s">
         <v>73</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2">
+        <v>253</v>
+      </c>
+      <c r="V2" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s">
+        <v>83</v>
       </c>
       <c r="BO2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="BP2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1610,25 +1724,64 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
         <v>81</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="U3">
+        <v>253</v>
+      </c>
+      <c r="V3" t="s">
         <v>82</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -1636,25 +1789,70 @@
       <c r="C4" t="s">
         <v>73</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4">
+        <v>253</v>
+      </c>
+      <c r="V4" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1662,25 +1860,70 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>90</v>
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5">
+        <v>253</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -1688,25 +1931,70 @@
       <c r="C6" t="s">
         <v>73</v>
       </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6">
+        <v>7</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6">
+        <v>253</v>
+      </c>
+      <c r="V6" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -1714,19 +2002,70 @@
       <c r="C7" t="s">
         <v>73</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>142</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7">
+        <v>7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7">
+        <v>7</v>
+      </c>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>81</v>
+      </c>
+      <c r="U7">
+        <v>253</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -1734,19 +2073,70 @@
       <c r="C8" t="s">
         <v>73</v>
       </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8">
+        <v>253</v>
+      </c>
+      <c r="V8" t="s">
+        <v>82</v>
+      </c>
+      <c r="W8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -1754,19 +2144,64 @@
       <c r="C9" t="s">
         <v>73</v>
       </c>
+      <c r="D9">
+        <v>3364</v>
+      </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U9">
+        <v>253</v>
+      </c>
+      <c r="V9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -1774,19 +2209,64 @@
       <c r="C10" t="s">
         <v>73</v>
       </c>
+      <c r="D10">
+        <v>32</v>
+      </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10" t="s">
+        <v>80</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10">
+        <v>253</v>
+      </c>
+      <c r="V10" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -1794,19 +2274,70 @@
       <c r="C11" t="s">
         <v>73</v>
       </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q11">
+        <v>7</v>
+      </c>
+      <c r="R11" t="s">
+        <v>80</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+      <c r="T11" t="s">
+        <v>81</v>
+      </c>
+      <c r="U11">
+        <v>253</v>
+      </c>
+      <c r="V11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>97</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -1814,19 +2345,64 @@
       <c r="C12" t="s">
         <v>73</v>
       </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12" t="s">
+        <v>81</v>
+      </c>
+      <c r="U12">
+        <v>253</v>
+      </c>
+      <c r="V12" t="s">
+        <v>82</v>
+      </c>
+      <c r="W12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -1834,19 +2410,64 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13" t="s">
+        <v>81</v>
+      </c>
+      <c r="U13">
+        <v>253</v>
+      </c>
+      <c r="V13" t="s">
+        <v>82</v>
+      </c>
+      <c r="W13" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -1854,19 +2475,70 @@
       <c r="C14" t="s">
         <v>73</v>
       </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14" t="s">
+        <v>80</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14" t="s">
+        <v>81</v>
+      </c>
+      <c r="U14">
+        <v>253</v>
+      </c>
+      <c r="V14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -1874,19 +2546,70 @@
       <c r="C15" t="s">
         <v>73</v>
       </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <v>7</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>80</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15">
+        <v>253</v>
+      </c>
+      <c r="V15" t="s">
+        <v>82</v>
+      </c>
+      <c r="W15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -1894,19 +2617,28 @@
       <c r="C16" t="s">
         <v>73</v>
       </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
       <c r="E16" t="s">
-        <v>114</v>
+        <v>174</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -1914,19 +2646,70 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17">
+        <v>7</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17">
+        <v>7</v>
+      </c>
+      <c r="T17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17">
+        <v>253</v>
+      </c>
+      <c r="V17" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -1934,19 +2717,28 @@
       <c r="C18" t="s">
         <v>73</v>
       </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>176</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -1954,19 +2746,70 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19">
+        <v>7</v>
+      </c>
+      <c r="P19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19">
+        <v>7</v>
+      </c>
+      <c r="T19" t="s">
+        <v>81</v>
+      </c>
+      <c r="U19">
+        <v>253</v>
+      </c>
+      <c r="V19" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -1974,19 +2817,70 @@
       <c r="C20" t="s">
         <v>73</v>
       </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>149</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20">
+        <v>7</v>
+      </c>
+      <c r="T20" t="s">
+        <v>81</v>
+      </c>
+      <c r="U20">
+        <v>253</v>
+      </c>
+      <c r="V20" t="s">
+        <v>82</v>
+      </c>
+      <c r="W20" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -1994,19 +2888,76 @@
       <c r="C21" t="s">
         <v>73</v>
       </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21">
+        <v>7</v>
+      </c>
+      <c r="P21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21">
+        <v>7</v>
+      </c>
+      <c r="T21" t="s">
+        <v>81</v>
+      </c>
+      <c r="U21">
+        <v>253</v>
+      </c>
+      <c r="V21" t="s">
+        <v>82</v>
+      </c>
+      <c r="W21" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -2014,19 +2965,70 @@
       <c r="C22" t="s">
         <v>73</v>
       </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
       <c r="E22" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O22">
+        <v>7</v>
+      </c>
+      <c r="P22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22">
+        <v>7</v>
+      </c>
+      <c r="T22" t="s">
+        <v>81</v>
+      </c>
+      <c r="U22">
+        <v>253</v>
+      </c>
+      <c r="V22" t="s">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -2034,19 +3036,70 @@
       <c r="C23" t="s">
         <v>73</v>
       </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J23" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23">
+        <v>7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23">
+        <v>7</v>
+      </c>
+      <c r="T23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23">
+        <v>253</v>
+      </c>
+      <c r="V23" t="s">
+        <v>82</v>
+      </c>
+      <c r="W23" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -2054,19 +3107,70 @@
       <c r="C24" t="s">
         <v>73</v>
       </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>151</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24" t="s">
+        <v>152</v>
+      </c>
+      <c r="U24">
+        <v>251</v>
+      </c>
+      <c r="V24" t="s">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -2074,19 +3178,70 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25">
+        <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25">
+        <v>7</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25">
+        <v>253</v>
+      </c>
+      <c r="V25" t="s">
+        <v>82</v>
+      </c>
+      <c r="W25" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -2094,19 +3249,70 @@
       <c r="C26" t="s">
         <v>73</v>
       </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26">
+        <v>7</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26">
+        <v>253</v>
+      </c>
+      <c r="V26" t="s">
+        <v>82</v>
+      </c>
+      <c r="W26" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -2115,18 +3321,66 @@
         <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>136</v>
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27">
+        <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>87</v>
+      </c>
+      <c r="K27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="R27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27">
+        <v>7</v>
+      </c>
+      <c r="T27" t="s">
+        <v>81</v>
+      </c>
+      <c r="U27">
+        <v>253</v>
+      </c>
+      <c r="V27" t="s">
+        <v>82</v>
+      </c>
+      <c r="W27" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -2135,18 +3389,60 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J28" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28">
+        <v>7</v>
+      </c>
+      <c r="T28" t="s">
+        <v>81</v>
+      </c>
+      <c r="U28">
+        <v>253</v>
+      </c>
+      <c r="V28" t="s">
+        <v>82</v>
+      </c>
+      <c r="W28" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -2155,18 +3451,60 @@
         <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="H29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
+      <c r="R29" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29" t="s">
+        <v>81</v>
+      </c>
+      <c r="U29">
+        <v>253</v>
+      </c>
+      <c r="V29" t="s">
+        <v>82</v>
+      </c>
+      <c r="W29" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -2175,18 +3513,60 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="H30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30">
+        <v>7</v>
+      </c>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+      <c r="U30">
+        <v>253</v>
+      </c>
+      <c r="V30" t="s">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -2194,19 +3574,70 @@
       <c r="C31" t="s">
         <v>73</v>
       </c>
+      <c r="D31">
+        <v>26</v>
+      </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+      <c r="R31" t="s">
+        <v>80</v>
+      </c>
+      <c r="S31">
+        <v>7</v>
+      </c>
+      <c r="T31" t="s">
+        <v>81</v>
+      </c>
+      <c r="U31">
+        <v>253</v>
+      </c>
+      <c r="V31" t="s">
+        <v>82</v>
+      </c>
+      <c r="W31" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -2214,19 +3645,64 @@
       <c r="C32" t="s">
         <v>73</v>
       </c>
+      <c r="D32">
+        <v>38</v>
+      </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J32" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32" t="s">
+        <v>80</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32" t="s">
+        <v>81</v>
+      </c>
+      <c r="U32">
+        <v>253</v>
+      </c>
+      <c r="V32" t="s">
+        <v>164</v>
+      </c>
+      <c r="W32" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -2234,19 +3710,70 @@
       <c r="C33" t="s">
         <v>73</v>
       </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
       <c r="E33" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
+      <c r="R33" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33">
+        <v>7</v>
+      </c>
+      <c r="T33" t="s">
+        <v>81</v>
+      </c>
+      <c r="U33">
+        <v>253</v>
+      </c>
+      <c r="V33" t="s">
+        <v>82</v>
+      </c>
+      <c r="W33" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO33" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
@@ -2254,19 +3781,70 @@
       <c r="C34" t="s">
         <v>73</v>
       </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
       <c r="E34" t="s">
-        <v>150</v>
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34">
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
+      <c r="R34" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+      <c r="T34" t="s">
+        <v>81</v>
+      </c>
+      <c r="U34">
+        <v>253</v>
+      </c>
+      <c r="V34" t="s">
+        <v>130</v>
+      </c>
+      <c r="W34" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -2274,19 +3852,70 @@
       <c r="C35" t="s">
         <v>73</v>
       </c>
+      <c r="D35">
+        <v>29</v>
+      </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35">
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J35" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35" t="s">
+        <v>80</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q35">
+        <v>7</v>
+      </c>
+      <c r="R35" t="s">
+        <v>80</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="T35" t="s">
+        <v>81</v>
+      </c>
+      <c r="U35">
+        <v>253</v>
+      </c>
+      <c r="V35" t="s">
+        <v>82</v>
+      </c>
+      <c r="W35" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -2294,19 +3923,70 @@
       <c r="C36" t="s">
         <v>73</v>
       </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
       <c r="E36" t="s">
-        <v>154</v>
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36">
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36">
+        <v>7</v>
+      </c>
+      <c r="R36" t="s">
+        <v>80</v>
+      </c>
+      <c r="S36">
+        <v>7</v>
+      </c>
+      <c r="T36" t="s">
+        <v>81</v>
+      </c>
+      <c r="U36">
+        <v>253</v>
+      </c>
+      <c r="V36" t="s">
+        <v>126</v>
+      </c>
+      <c r="W36" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -2314,17 +3994,73 @@
       <c r="C37" t="s">
         <v>73</v>
       </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>121</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="J37" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37" t="s">
+        <v>80</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
+      <c r="R37" t="s">
+        <v>80</v>
+      </c>
+      <c r="S37">
+        <v>7</v>
+      </c>
+      <c r="T37" t="s">
+        <v>81</v>
+      </c>
+      <c r="U37">
+        <v>253</v>
+      </c>
+      <c r="V37" t="s">
+        <v>122</v>
+      </c>
+      <c r="W37" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BS37" xr:uid="{B31B9CE5-1C0A-444F-9FF0-53F8FBA86B73}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS37">
+      <sortCondition ref="E1:E37"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>